--- a/public/templates/template_rkpdesa.xlsx
+++ b/public/templates/template_rkpdesa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\sipede\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274B130-FC64-4FE6-9A50-88CD2C66CD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D034F4-44AC-446E-A59A-17ECC51BB7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2BE28B62-50DB-4172-95AF-07119CE7F2F4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>…………</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Penyelenggaraan Pemerintahan Desa</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -385,6 +382,30 @@
   </si>
   <si>
     <t>Jumlah Per Bidang 5</t>
+  </si>
+  <si>
+    <t>SDGs</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>[sdgs_1]</t>
+  </si>
+  <si>
+    <t>[sdgs_2]</t>
+  </si>
+  <si>
+    <t>[sdgs_3]</t>
+  </si>
+  <si>
+    <t>[sdgs_4]</t>
+  </si>
+  <si>
+    <t>[sdgs_5]</t>
   </si>
 </sst>
 </file>
@@ -904,99 +925,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,48 +937,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,12 +949,6 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,6 +970,144 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1470,10 +1491,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1484,19 +1505,20 @@
     <col min="5" max="5" width="16.81640625" customWidth="1"/>
     <col min="6" max="6" width="4.1796875" customWidth="1"/>
     <col min="7" max="7" width="47.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D1" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1509,49 +1531,52 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="D2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="D3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="D2" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="D3" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+    </row>
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D4" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1559,17 +1584,18 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D5" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1577,48 +1603,51 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="25"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D7" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H7" s="25"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1631,582 +1660,617 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="33" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="33" t="s">
+      <c r="M9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="N9" s="73"/>
+      <c r="O9" s="65" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" spans="1:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
+      <c r="P9" s="81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="82"/>
+    </row>
+    <row r="11" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="N11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="60" t="s">
+      <c r="O11" s="67"/>
+      <c r="P11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="B12" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="G12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="H12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="I12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="J12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="K12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="L12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="91" t="s">
+      <c r="N12" s="30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="O12" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
         <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="H13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="L13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="M13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="N13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="P13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="18">
+        <f>SUM(M13:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="18">
-        <f>SUM(L13:L14)</f>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="18">
+        <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="72"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>2</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" s="15" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="18">
-        <f>SUM(L16:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>3</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="H19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="J19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="L19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="M19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="N19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="P19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="77"/>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="20"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-    </row>
-    <row r="21" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75">
-        <f>SUM(L19:L20)</f>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="34">
+        <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
         <v>4</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="G22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="J22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="L22" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="M22" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="N22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="P22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O22" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="77"/>
+    </row>
+    <row r="23" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="20"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="90"/>
-    </row>
-    <row r="24" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="L23" s="20"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75">
-        <f>SUM(L22:L23)</f>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="34">
+        <f>SUM(M22:M23)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
         <v>5</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="J25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="K25" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="L25" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="M25" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="N25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="O25" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="P25" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="79">
-        <f>SUM(L25:L26)</f>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="35">
+        <f>SUM(M25:M26)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-    </row>
-    <row r="28" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="81">
-        <f>L15+L18+L21+L24+L27</f>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="37">
+        <f>M15+M18+M21+M24+M27</f>
         <v>0</v>
       </c>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2215,12 +2279,13 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
@@ -2231,19 +2296,20 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2251,52 +2317,56 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="6"/>
       <c r="G32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
@@ -2309,26 +2379,28 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="6"/>
       <c r="G36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="4:15" ht="14" x14ac:dyDescent="0.3">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="4:16" ht="14" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2341,38 +2413,40 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A21:K21"/>
+  <mergeCells count="30">
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="L9:L11"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496062992" top="0.27" bottom="0.28999999999999998" header="0.22" footer="0.27"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
